--- a/etikom/static/file/ornek-stok-dosyasi.xlsx
+++ b/etikom/static/file/ornek-stok-dosyasi.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4E2011-ECBB-43CF-A9D1-EA2EFD357D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF35076-DCAE-408D-85ED-533B68413CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2562" yWindow="2562" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sayfa2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sayfa2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sayfa3" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="bugnotes" localSheetId="0">Sayfa1!$A$2</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Fatura No</t>
   </si>
@@ -73,27 +74,6 @@
   </si>
   <si>
     <t>1012224VR</t>
-  </si>
-  <si>
-    <t>Toplam Fatura Adedi</t>
-  </si>
-  <si>
-    <t>Toplam Stok Çeşidi</t>
-  </si>
-  <si>
-    <t>Toplam Stok Girişi</t>
-  </si>
-  <si>
-    <t>Toplam Stok Çıkışı</t>
-  </si>
-  <si>
-    <t>Kalan Stok Adedi</t>
-  </si>
-  <si>
-    <t>Toplam Stok Maliyeti</t>
-  </si>
-  <si>
-    <t>Ortalama Stok Maliyeti</t>
   </si>
   <si>
     <t>ASD2024000017455</t>
@@ -459,9 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -653,7 +631,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -671,7 +649,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -689,7 +667,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -707,10 +685,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -729,51 +707,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DD9C48-E61C-44E1-B268-39043550EEF6}">
-  <dimension ref="C2:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0FF0F2-16CC-4CA3-831D-6E2E95BAAA9A}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7618C163-1048-4E22-80F9-F74D220A55AC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/etikom/static/file/ornek-stok-dosyasi.xlsx
+++ b/etikom/static/file/ornek-stok-dosyasi.xlsx
@@ -3,24 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF35076-DCAE-408D-85ED-533B68413CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06560844-B041-44B3-A5C3-D3D11B7B4343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2562" yWindow="2562" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sayfa2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sayfa3" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="bugnotes" localSheetId="0">Sayfa1!$A$2</definedName>
+    <definedName name="bugnotes" localSheetId="0">Sayfa1!$A$4</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Fatura No</t>
   </si>
@@ -40,46 +38,43 @@
     <t>FTR2022000013524</t>
   </si>
   <si>
-    <t>AB4509</t>
-  </si>
-  <si>
-    <t>TG9090</t>
-  </si>
-  <si>
     <t>DFG2018000006512</t>
   </si>
   <si>
-    <t>YT7835</t>
-  </si>
-  <si>
-    <t>KJ7844</t>
-  </si>
-  <si>
-    <t>BR0903</t>
-  </si>
-  <si>
-    <t>MN3335</t>
-  </si>
-  <si>
     <t>ABC2020000300467</t>
   </si>
   <si>
-    <t>YHT2021050000880</t>
-  </si>
-  <si>
-    <t>855-TR-244</t>
-  </si>
-  <si>
-    <t>722-HG-ZRF</t>
-  </si>
-  <si>
-    <t>1012224VR</t>
-  </si>
-  <si>
-    <t>ASD2024000017455</t>
-  </si>
-  <si>
-    <t>ZGC-D5000K</t>
+    <t>FİŞNO000006512</t>
+  </si>
+  <si>
+    <t>YHT2024000017455</t>
+  </si>
+  <si>
+    <t>iPhone 13</t>
+  </si>
+  <si>
+    <t>iPhone 12</t>
+  </si>
+  <si>
+    <t>iPhone 7</t>
+  </si>
+  <si>
+    <t>Nokia   3310</t>
+  </si>
+  <si>
+    <t>Nokia   6600</t>
+  </si>
+  <si>
+    <t>Nokia   3210</t>
+  </si>
+  <si>
+    <t>Nokia   5210</t>
+  </si>
+  <si>
+    <t>ASD2019000200105</t>
+  </si>
+  <si>
+    <t>BELGENO00183346</t>
   </si>
 </sst>
 </file>
@@ -89,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,16 +99,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,17 +131,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,295 +505,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.3671875" customWidth="1"/>
-    <col min="2" max="2" width="12.05078125" customWidth="1"/>
+    <col min="1" max="1" width="21.578125" customWidth="1"/>
+    <col min="2" max="2" width="14.68359375" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.5234375" customWidth="1"/>
     <col min="4" max="4" width="12.05078125" customWidth="1"/>
     <col min="5" max="5" width="13.41796875" customWidth="1"/>
+    <col min="8" max="8" width="10.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="7">
+        <v>220</v>
+      </c>
+      <c r="E2" s="7">
+        <f>C2*D2</f>
+        <v>1100</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7">
+        <v>575</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E14" si="0">C3*D3</f>
+        <v>4025</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="E2" s="2">
-        <f>C2*D2</f>
-        <v>41.099999999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="D4" s="7">
+        <v>139</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>834</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>25.4</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E14" si="0">C3*D3</f>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D5" s="7">
+        <v>117.75</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>942</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>575</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>459</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>4590</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>199.99</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>2399.88</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7">
+        <v>384.45</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>3075.6</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>97.23</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>680.61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <v>-4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>245</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>-980</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>660</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>-3300</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>12.85</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>128.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D12" s="7">
+        <v>443</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>3544</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7">
+        <v>224.9</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>3373.5</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2">
-        <v>52</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>76.42</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>305.68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>220</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>5060</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2">
-        <v>189.5</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>7580</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1025.5999999999999</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>8204.7999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>26.9</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>107.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>101.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2">
-        <v>249.9</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>3498.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2">
-        <v>83.35</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>2500.5</v>
-      </c>
+      <c r="C14" s="5">
+        <v>-5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>459</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>-2295</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="6"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="6"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="6"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="8"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="8"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0FF0F2-16CC-4CA3-831D-6E2E95BAAA9A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7618C163-1048-4E22-80F9-F74D220A55AC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/etikom/static/file/ornek-stok-dosyasi.xlsx
+++ b/etikom/static/file/ornek-stok-dosyasi.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06560844-B041-44B3-A5C3-D3D11B7B4343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7A60A2-227A-4C96-8700-A7DB2BDEAC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,7 +540,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
@@ -562,7 +562,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -584,7 +584,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -606,7 +606,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -672,7 +672,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -738,7 +738,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -804,7 +804,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6"/>
       <c r="B15" s="10"/>
       <c r="C15" s="6"/>
@@ -837,7 +837,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="B16" s="10"/>
       <c r="C16" s="6"/>
@@ -848,7 +848,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
       <c r="B17" s="10"/>
       <c r="C17" s="6"/>
@@ -859,7 +859,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="B18" s="10"/>
       <c r="C18" s="6"/>
@@ -870,7 +870,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="B19" s="10"/>
       <c r="C19" s="6"/>
@@ -881,7 +881,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8"/>
       <c r="B20" s="11"/>
       <c r="C20" s="8"/>

--- a/etikom/static/file/ornek-stok-dosyasi.xlsx
+++ b/etikom/static/file/ornek-stok-dosyasi.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7A60A2-227A-4C96-8700-A7DB2BDEAC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D92B19-2F8E-4515-B7F6-55D3EF63E3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Fatura No</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>BELGENO00183346</t>
+  </si>
+  <si>
+    <t>Fatura Tarihi</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,6 +202,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -505,414 +515,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="21.578125" customWidth="1"/>
-    <col min="2" max="2" width="14.68359375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5234375" customWidth="1"/>
-    <col min="4" max="4" width="12.05078125" customWidth="1"/>
-    <col min="5" max="5" width="13.41796875" customWidth="1"/>
-    <col min="8" max="8" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.15625" customWidth="1"/>
+    <col min="3" max="3" width="14.68359375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5234375" customWidth="1"/>
+    <col min="5" max="5" width="12.05078125" customWidth="1"/>
+    <col min="6" max="6" width="13.41796875" customWidth="1"/>
+    <col min="9" max="9" width="10.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15">
+        <v>45293</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="E2" s="7">
         <v>220</v>
       </c>
-      <c r="E2" s="7">
-        <f>C2*D2</f>
+      <c r="F2" s="7">
+        <f>D2*E2</f>
         <v>1100</v>
       </c>
-      <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15">
+        <v>45293</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>7</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="7">
         <v>575</v>
       </c>
-      <c r="E3" s="7">
-        <f t="shared" ref="E3:E14" si="0">C3*D3</f>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F14" si="0">D3*E3</f>
         <v>4025</v>
       </c>
-      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15">
+        <v>45366</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>6</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4" s="7">
         <v>139</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <f t="shared" si="0"/>
         <v>834</v>
       </c>
-      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="15">
+        <v>45366</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5" s="7">
         <v>117.75</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>942</v>
       </c>
-      <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="15">
+        <v>45450</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E6" s="7">
         <v>575</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15">
+        <v>45450</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>10</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7" s="7">
         <v>459</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>4590</v>
       </c>
-      <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15">
+        <v>45450</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>12</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8" s="7">
         <v>199.99</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>2399.88</v>
       </c>
-      <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="15">
+        <v>45343</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9" s="7">
         <v>384.45</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>3075.6</v>
       </c>
-      <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="15">
+        <v>45398</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>-4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="E10" s="7">
         <v>245</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>-980</v>
       </c>
-      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="15">
+        <v>45398</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="5">
         <v>-5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11" s="7">
         <v>660</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>-3300</v>
       </c>
-      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="15">
+        <v>45595</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>8</v>
       </c>
-      <c r="D12" s="7">
+      <c r="E12" s="7">
         <v>443</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>3544</v>
       </c>
-      <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15">
+        <v>45595</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>15</v>
       </c>
-      <c r="D13" s="7">
+      <c r="E13" s="7">
         <v>224.9</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>3373.5</v>
       </c>
-      <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="15">
+        <v>45492</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>-5</v>
       </c>
-      <c r="D14" s="7">
+      <c r="E14" s="7">
         <v>459</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>-2295</v>
       </c>
-      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
